--- a/biology/Zoologie/Eleutherodactylus_cooki/Eleutherodactylus_cooki.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_cooki/Eleutherodactylus_cooki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus cooki est une espèce d'amphibiens de la famille des Eleutherodactylidae[1]. Elle a été décrite par Chapman Grant en 1932.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus cooki est une espèce d'amphibiens de la famille des Eleutherodactylidae. Elle a été décrite par Chapman Grant en 1932.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Porto Rico[1]. Elle se rencontre de 90 à 300 m d'altitude dans la sierra de Panduras.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Porto Rico. Elle se rencontre de 90 à 300 m d'altitude dans la sierra de Panduras.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 37 mm[2]. Cette grenouille a le dos marron et le ventre blanc ; le mâle a sur la gorge une tache jaune qui s'étend jusqu'à l'abdomen[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 37 mm. Cette grenouille a le dos marron et le ventre blanc ; le mâle a sur la gorge une tache jaune qui s'étend jusqu'à l'abdomen.
 Eleutherodactylus cooki est surnommée « démon de Porto Rico » car les indigènes étaient effrayés par son chant et son apparence fantomatique. Son nom originel de « guajon » est dérivé de son habitat, les « guajonales », des grottes que l’on trouve dans des amas de gros rochers.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Melville Thurston Cook  (1869–1952).
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grant, 1932 : A new frog from Puerto Rico. Journal of the Department of Agriculture Puerto Rico, vol. 16, p. 145-148.</t>
         </is>
